--- a/saida_simplificada.xlsx
+++ b/saida_simplificada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,9 +435,9 @@
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="51" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="55" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="63" customWidth="1" min="4" max="4"/>
+    <col width="96" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
@@ -476,11 +476,6 @@
           <t>MLB1162494742</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3 * l Resina Cationica C100</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Cor : Amarelo</t>
@@ -501,11 +496,6 @@
           <t>MLB3391361861</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Tanque 8x35 SI</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Cor : Bege</t>
@@ -526,11 +516,6 @@
           <t>MLB996522874</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Filtro Zero Cloro BR</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Cor : Branco | Voltagem : 20</t>
@@ -631,11 +616,6 @@
           <t>MLB2822025113</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Tanque 10x35 6 Camadas + KIT</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Cor : Bege</t>
@@ -656,11 +636,6 @@
           <t>MLB1164452756</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Clorador artesanal</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Cor : Transparente</t>
@@ -698,12 +673,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MLB1014653143</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Filtro Deionizador TR/BR</t>
+          <t>MLB997662377</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -713,22 +683,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Leandro Rosario</t>
+          <t>Adroaldo Queiroga  Aguiat</t>
         </is>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MLB1397753949</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>5 * Refil PP BIG20 5 micra</t>
+          <t>MLB2797996028</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -738,72 +703,57 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>HELAINE DA SILVA REIS MARINHO FERRAGENS E FERRAMENTAS</t>
+          <t>valdenir barbosa do canto</t>
         </is>
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MLB1397753949</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>5 * Refil PP BIG20 5 micra</t>
+          <t>MLB996413856</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cor : Branco</t>
+          <t> </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>HELAINE DA SILVA REIS MARINHO FERRAGENS E FERRAMENTAS</t>
+          <t>Samuel Santana</t>
         </is>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MLB1397753949</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>5 * Refil PP BIG20 5 micra</t>
+          <t>MLB1975196364</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cor : Branco</t>
+          <t>Cor : Bege</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>HELAINE DA SILVA REIS MARINHO FERRAGENS E FERRAMENTAS</t>
+          <t>Fábio Luiz Da Cruz Amorim</t>
         </is>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MLB1397753949</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5 * Refil PP BIG20 5 micra</t>
+          <t>MLB1212886880</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -813,47 +763,37 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>HELAINE DA SILVA REIS MARINHO FERRAGENS E FERRAMENTAS</t>
+          <t>leandro costantino</t>
         </is>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MLB1397753949</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>5 * Refil PP BIG20 5 micra</t>
+          <t>MLB1512050721</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cor : Branco</t>
+          <t> </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>HELAINE DA SILVA REIS MARINHO FERRAGENS E FERRAMENTAS</t>
+          <t>JOSÉ GERALDO FONSECA PEÇANHA PEÇANHA</t>
         </is>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MLB1397753949</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>5 * Refil PP BIG20 5 micra</t>
+          <t>MLB1014653143</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -863,7 +803,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>HELAINE DA SILVA REIS MARINHO FERRAGENS E FERRAMENTAS</t>
+          <t>Leandro Rosario</t>
         </is>
       </c>
     </row>
@@ -873,22 +813,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MLB1397753949</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5 * Refil PP BIG20 5 micra</t>
+          <t>MLB1975196364</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cor : Branco</t>
+          <t>Cor : Bege</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>HELAINE DA SILVA REIS MARINHO FERRAGENS E FERRAMENTAS</t>
+          <t>epitacio barzotto</t>
         </is>
       </c>
     </row>
@@ -898,22 +833,4308 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>MLB3391361861</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ademir Brito</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MLB3391361861</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Roberto Martins da Silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="22.5" customHeight="1">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MLB1612343162</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Voltagem : 0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>leandro goncalves de araujo leandrogdearaujoptc</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="22.5" customHeight="1">
+      <c r="A23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MLB1001509485</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Cor : Azul</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>COMASUL COMERCIO DE CORREIAS E MANGUEIRAS SUL MATOGROSSENSE LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="22.5" customHeight="1">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MLB5120116472</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Raifran Magalhaes da Silva Junior</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="22.5" customHeight="1">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MLB1029311755</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Cor : Branco</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Vânia Márcia de Sousa Leal</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="22.5" customHeight="1">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MLB2200429949</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Cor : Branco | Voltagem : 127/220V</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Fernanda Paolone Rezende</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="22.5" customHeight="1">
+      <c r="A27" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MLB1088847954</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Cor : 5 micra</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Joana da Silva Dias</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="22.5" customHeight="1">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MLB998422522</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Cor : Preto</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Guilherme Henrique da Silva Medeiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="22.5" customHeight="1">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MLB996413856</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>THIAGO HENRIQUE DA SILVA COMMERCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="22.5" customHeight="1">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MLB1122410325</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Cor : Azul | conexão : 1.1/2 polegada</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Alexander da Silva Guimaraes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="22.5" customHeight="1">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MLB1856944800</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Cor : Preto</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>FUNDACAO EDUCACIONAL DE BRUSQUE - FEBE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="22.5" customHeight="1">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MLB1001498539</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Cor : Branco | Voltagem : N/A</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>cláudio Schroeder</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="22.5" customHeight="1">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Diogo Patrão</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="22.5" customHeight="1">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MLB1496013548</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>AUTO VIACAO MODELO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="22.5" customHeight="1">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MLB3814037691</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Rogerio Fontes Fazoli</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="22.5" customHeight="1">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MLB3859117635</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Voltagem : NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Marcelo Komino</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="22.5" customHeight="1">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Andressa Aparecida Sousa Oliveira</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="22.5" customHeight="1">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MLB1145098146</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>jean alexandre leite</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="22.5" customHeight="1">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MLB1762340477</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Voltagem : NAO NECESSÁRIO</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Artur Felipe da Silva Camilo</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="22.5" customHeight="1">
+      <c r="A40" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MLB1162494742</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Cor : Amarelo</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Luis Carlos Fagundes</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="22.5" customHeight="1">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MLB1497002636</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Cor : Azul</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Cristiane Granemann Auersvald Rohden Mor</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="22.5" customHeight="1">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MLB1307370617</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Cor : Conexão 1.1/2 polegada | Voltagem : 25 micra</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>jorge pereira dos santos</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="22.5" customHeight="1">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MLB1166587228</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Caio Rodrigo Ikuno</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="22.5" customHeight="1">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MLB3964234215</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Cor : 50 MICRA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Alberto lins bastos</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="22.5" customHeight="1">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>marcelo rafael ricken</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="22.5" customHeight="1">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MLB1527549288</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Cor : Plissado 05 micras | Voltagem : conexão 1. 1 2 polegada</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Antonio Cezar Pereira de Andrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="22.5" customHeight="1">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MLB1164452756</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Cor : Transparente</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Rodrigo Martins Pereira</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="22.5" customHeight="1">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MLB1001509485</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Cor : Azul</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Heberton Domingos</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="22.5" customHeight="1">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MLB2822025113</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>jedilane duque</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="22.5" customHeight="1">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Edilson Carvalho de Oliveira</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="22.5" customHeight="1">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MLB3683792460</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Fabiana Renata Mendes Guimarãe Guimarães</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="22.5" customHeight="1">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MLB997843730</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Cor : Branco | Voltagem : 20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Laerte Antonio de Carvalho</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="22.5" customHeight="1">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MLB2822025113</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Josiel Moreira Lopes</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="22.5" customHeight="1">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MLB1164452756</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Cor : Transparente</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Oziel Gomes da Silva Figueiredo</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="22.5" customHeight="1">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MLB3650146703</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Cor : Bege | Voltagem : 127/220V</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Neris Luiz Meira</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="22.5" customHeight="1">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Vinicius Segatto del Pupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="22.5" customHeight="1">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Vinicius Segatto del Pupo</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="22.5" customHeight="1">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MLB1770182177</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Cor : Preto</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Mara Ferreira</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="22.5" customHeight="1">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MLB1971771758</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CONEXÃO : 1/4''</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Eduardo da Silva Junior</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="22.5" customHeight="1">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MLB2797996028</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Cor : Branco</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Lucas Felipe Henrich Morschel</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="22.5" customHeight="1">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MLB5216901932</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Voltagem : N/A</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Leonardo tardim</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="22.5" customHeight="1">
+      <c r="A62" t="n">
+        <v>3</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MLB1397753949</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Cor : Branco</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>HELAINE DA SILVA REIS MARINHO FERRAGENS E FERRAMENTAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="22.5" customHeight="1">
+      <c r="A63" t="n">
+        <v>3</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MLB1397753949</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Cor : Branco</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>HELAINE DA SILVA REIS MARINHO FERRAGENS E FERRAMENTAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="22.5" customHeight="1">
+      <c r="A64" t="n">
+        <v>3</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MLB1397753949</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Cor : Branco</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>HELAINE DA SILVA REIS MARINHO FERRAGENS E FERRAMENTAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="22.5" customHeight="1">
+      <c r="A65" t="n">
+        <v>3</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MLB1397753949</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Cor : Branco</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>HELAINE DA SILVA REIS MARINHO FERRAGENS E FERRAMENTAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="22.5" customHeight="1">
+      <c r="A66" t="n">
+        <v>3</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MLB1397753949</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Cor : Branco</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>HELAINE DA SILVA REIS MARINHO FERRAGENS E FERRAMENTAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="22.5" customHeight="1">
+      <c r="A67" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MLB1397753949</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Cor : Branco</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>HELAINE DA SILVA REIS MARINHO FERRAGENS E FERRAMENTAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="22.5" customHeight="1">
+      <c r="A68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MLB1397753949</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Cor : Branco</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>HELAINE DA SILVA REIS MARINHO FERRAGENS E FERRAMENTAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="22.5" customHeight="1">
+      <c r="A69" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>maria celeste dos santos protazio</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="22.5" customHeight="1">
+      <c r="A70" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MLB3981196037</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Cor : 50 MICRA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>QSAMBIENTAL QUALI</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="22.5" customHeight="1">
+      <c r="A71" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MLB5113044728</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>SARA I</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="22.5" customHeight="1">
+      <c r="A72" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MLB4629169970</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Cor : filtro para poço artesiano | Voltagem : vazão 2.000l h</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Antonio Marcelino Moura da Silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="22.5" customHeight="1">
+      <c r="A73" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MLB1893585692</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Cor : Azul | Voltagem : conexão 3 4 de polegada 25 mm</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Clinton Sarmento</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="22.5" customHeight="1">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>INDUSMOLD INDUSTRIA DE MOLDES LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="22.5" customHeight="1">
+      <c r="A75" t="n">
+        <v>4</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>MLB1145098146</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="22.5" customHeight="1">
+      <c r="A76" t="n">
+        <v>5</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MLB1010220552</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="22.5" customHeight="1">
+      <c r="A77" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ISMAEL S FONSECA</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="22.5" customHeight="1">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>MLB3771186511</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Cor : Bege | Voltagem : Não se Aplica</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Ricardo Amaral Silveira Pinto</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="22.5" customHeight="1">
+      <c r="A79" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>MLB1701252576</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Cor : Transparente</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Lucas  santos</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="22.5" customHeight="1">
+      <c r="A80" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>MLB1597805317</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Cor : 25 micra | Voltagem : conexão 1 polegada</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Guilherme Consentino Munhoz</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="22.5" customHeight="1">
+      <c r="A81" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>MLB1164452756</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Cor : Transparente</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>racenilpires66 racenilpires66</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="22.5" customHeight="1">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Anderson Comerlatto</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="22.5" customHeight="1">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>MLB1496052236</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="22.5" customHeight="1">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>MLB996413856</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="85" ht="22.5" customHeight="1">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Magno Weege</t>
+        </is>
+      </c>
+    </row>
+    <row r="86" ht="22.5" customHeight="1">
+      <c r="A86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>MLB1065447969</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Cor : Branco | Voltagem : 20</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Rodrigo Pereira Couto</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="22.5" customHeight="1">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>MLB1065447969</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Cor : Branco | Voltagem : 20</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Mauricio Silva Knoploch Dos Santos</t>
+        </is>
+      </c>
+    </row>
+    <row r="88" ht="22.5" customHeight="1">
+      <c r="A88" t="n">
+        <v>1</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>MLB1612343162</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Voltagem : 0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>KAREN SIMONSEN REDFERN COMERCIO DE ARTIGOS PARA AQUARIOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" ht="22.5" customHeight="1">
+      <c r="A89" t="n">
+        <v>1</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Luis Cesar Dos Santos Dono</t>
+        </is>
+      </c>
+    </row>
+    <row r="90" ht="22.5" customHeight="1">
+      <c r="A90" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Madson Rheryson</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" ht="22.5" customHeight="1">
+      <c r="A91" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>MLB4870378786</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>FLAVIO TEIXEIRA PENNA 05846061842</t>
+        </is>
+      </c>
+    </row>
+    <row r="92" ht="22.5" customHeight="1">
+      <c r="A92" t="n">
+        <v>1</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>LEONARDO MACEDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93" ht="22.5" customHeight="1">
+      <c r="A93" t="n">
+        <v>1</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>MLB1612343162</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Voltagem : 0</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Angelo Rodrigo Monteiro Rubio</t>
+        </is>
+      </c>
+    </row>
+    <row r="94" ht="22.5" customHeight="1">
+      <c r="A94" t="n">
+        <v>1</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>MLB1412348024</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>GRANULOMETRIA : 6X10</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Lidmar Guedes Correa</t>
+        </is>
+      </c>
+    </row>
+    <row r="95" ht="22.5" customHeight="1">
+      <c r="A95" t="n">
+        <v>1</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>MLB5113044728</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Camilo Antonio Barioni</t>
+        </is>
+      </c>
+    </row>
+    <row r="96" ht="22.5" customHeight="1">
+      <c r="A96" t="n">
+        <v>1</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>57.824.392 ELIANA CRISTINA DE OLIVEIRA DE MELO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97" ht="22.5" customHeight="1">
+      <c r="A97" t="n">
+        <v>1</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>MLB3326545023</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Gustavo Foresti Fezer</t>
+        </is>
+      </c>
+    </row>
+    <row r="98" ht="22.5" customHeight="1">
+      <c r="A98" t="n">
+        <v>1</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>MLB1865425944</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Anderson de Aguiar Rodrigues</t>
+        </is>
+      </c>
+    </row>
+    <row r="99" ht="22.5" customHeight="1">
+      <c r="A99" t="n">
+        <v>1</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>MLB1317613757</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Cor : Amarelo</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Luiza Ferreira Brito Beraldo</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" ht="22.5" customHeight="1">
+      <c r="A100" t="n">
+        <v>1</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>MLB998514234</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Supportcare Tecnologia Hospitalar Ltda</t>
+        </is>
+      </c>
+    </row>
+    <row r="101" ht="22.5" customHeight="1">
+      <c r="A101" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>MLB1164452756</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Cor : Transparente</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Elisangela Ataíde</t>
+        </is>
+      </c>
+    </row>
+    <row r="102" ht="22.5" customHeight="1">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>MLB2822025113</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reginaldo  Dos Santos Camargo </t>
+        </is>
+      </c>
+    </row>
+    <row r="103" ht="22.5" customHeight="1">
+      <c r="A103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>MLB4530013760</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Cor : Transparente</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Anderson Candiotto Borges</t>
+        </is>
+      </c>
+    </row>
+    <row r="104" ht="22.5" customHeight="1">
+      <c r="A104" t="n">
+        <v>1</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>MLB1527549288</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Cor : Plissado 25 micra | Voltagem : conexão 3.4 polegada</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Josias Pereira de Azevedo Filho</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" ht="22.5" customHeight="1">
+      <c r="A105" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>MLB3391361861</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Paulo Cesar de Salles</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" ht="22.5" customHeight="1">
+      <c r="A106" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>MLB3964234215</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Cor : 50 MICRA</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Celeste Herrero Rubio</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" ht="22.5" customHeight="1">
+      <c r="A107" t="n">
+        <v>1</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>MLB1465515862</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Tony Ony Dos Santos Rodrigues</t>
+        </is>
+      </c>
+    </row>
+    <row r="108" ht="22.5" customHeight="1">
+      <c r="A108" t="n">
+        <v>1</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Luzia Feitosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="109" ht="22.5" customHeight="1">
+      <c r="A109" t="n">
+        <v>1</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Junior  Castro</t>
+        </is>
+      </c>
+    </row>
+    <row r="110" ht="22.5" customHeight="1">
+      <c r="A110" t="n">
+        <v>1</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>MLB1701252576</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Cor : Transparente</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Aloisio Pedrosa Nobre</t>
+        </is>
+      </c>
+    </row>
+    <row r="111" ht="22.5" customHeight="1">
+      <c r="A111" t="n">
+        <v>1</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Douglas Andrade de Souza Carvalho</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" ht="22.5" customHeight="1">
+      <c r="A112" t="n">
+        <v>1</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>MLB2806237253</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sabrina  Mendes Pereira </t>
+        </is>
+      </c>
+    </row>
+    <row r="113" ht="22.5" customHeight="1">
+      <c r="A113" t="n">
+        <v>1</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>MLB3391361861</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Wilson Cavichioli Junior</t>
+        </is>
+      </c>
+    </row>
+    <row r="114" ht="22.5" customHeight="1">
+      <c r="A114" t="n">
+        <v>3</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>MLB1512050721</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Marcello Badin</t>
+        </is>
+      </c>
+    </row>
+    <row r="115" ht="22.5" customHeight="1">
+      <c r="A115" t="n">
+        <v>1</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MLB1079727848</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>AFN LAVANDERIA PORTO SEGURO CENTRO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="116" ht="22.5" customHeight="1">
+      <c r="A116" t="n">
+        <v>1</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>MLB1139831054</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Tamie Baethge Iwao</t>
+        </is>
+      </c>
+    </row>
+    <row r="117" ht="22.5" customHeight="1">
+      <c r="A117" t="n">
+        <v>1</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>MLB2806263624</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Emir Foelkel Neto</t>
+        </is>
+      </c>
+    </row>
+    <row r="118" ht="22.5" customHeight="1">
+      <c r="A118" t="n">
+        <v>2</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>MLB2822231046</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Cor : Branco</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>ANIMAX FAST-FOOD E EVENTOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" ht="22.5" customHeight="1">
+      <c r="A119" t="n">
+        <v>2</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>MLB1108398881</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vinicio  Cordeiro </t>
+        </is>
+      </c>
+    </row>
+    <row r="120" ht="22.5" customHeight="1">
+      <c r="A120" t="n">
+        <v>1</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>MLB1029035388</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>André Gustavo Colpo</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" ht="22.5" customHeight="1">
+      <c r="A121" t="n">
+        <v>1</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>MLB4870368268</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Cor : Azul</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Douglas Mayer</t>
+        </is>
+      </c>
+    </row>
+    <row r="122" ht="22.5" customHeight="1">
+      <c r="A122" t="n">
+        <v>1</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>MLB1527549288</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Cor : Plissado 05 micras | Voltagem : conexão 3.4 polegada</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>valdeci junior</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" ht="22.5" customHeight="1">
+      <c r="A123" t="n">
+        <v>1</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>MLB2805853817</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Ricardo de Almeida Silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="124" ht="22.5" customHeight="1">
+      <c r="A124" t="n">
+        <v>1</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>MLB3701474384</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Cor : Branco</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>João  Batista</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" ht="22.5" customHeight="1">
+      <c r="A125" t="n">
+        <v>1</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>MLB1856944800</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Cor : Preto</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>FAVORETTI  CIA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="126" ht="22.5" customHeight="1">
+      <c r="A126" t="n">
+        <v>1</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>MLB1893585692</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Cor : Azul | Voltagem : conexão 3 4 de polegada 25 mm</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Douglas Andrade de Souza Carvalho</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" ht="22.5" customHeight="1">
+      <c r="A127" t="n">
+        <v>1</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>MLB1139831054</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Rosangela Fernandes</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" ht="22.5" customHeight="1">
+      <c r="A128" t="n">
+        <v>1</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>MLB997843730</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Cor : Branco | Voltagem : 20</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Leonardo Valadao</t>
+        </is>
+      </c>
+    </row>
+    <row r="129" ht="22.5" customHeight="1">
+      <c r="A129" t="n">
+        <v>1</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Marco Antonio de Castilho</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" ht="22.5" customHeight="1">
+      <c r="A130" t="n">
+        <v>1</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>MLB1307370617</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Cor : Conexão 1.1/2 polegada | Voltagem : 5 micra</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Tiago Marcelino dos Santos Marcelino</t>
+        </is>
+      </c>
+    </row>
+    <row r="131" ht="22.5" customHeight="1">
+      <c r="A131" t="n">
+        <v>1</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>MLB1307370617</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Cor : Conexão 1.1/2 polegada | Voltagem : 50 micra</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Tiago Marcelino dos Santos Marcelino</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" ht="22.5" customHeight="1">
+      <c r="A132" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>MLB2822025113</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Humberto Luis Dellaquila</t>
+        </is>
+      </c>
+    </row>
+    <row r="133" ht="22.5" customHeight="1">
+      <c r="A133" t="n">
+        <v>1</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>MLB2940315437</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>renato paradiso</t>
+        </is>
+      </c>
+    </row>
+    <row r="134" ht="22.5" customHeight="1">
+      <c r="A134" t="n">
+        <v>1</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>MLB1971771758</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CONEXÃO : 1/4''</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Amanda Ribeiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="135" ht="22.5" customHeight="1">
+      <c r="A135" t="n">
+        <v>1</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>MLB1054317400</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>LABORATORIO DE ANALISES CLINICAS FONTANA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="136" ht="22.5" customHeight="1">
+      <c r="A136" t="n">
+        <v>1</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>MLB2797996028</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Cor : Branco</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>SHEYLA SANTANA</t>
+        </is>
+      </c>
+    </row>
+    <row r="137" ht="22.5" customHeight="1">
+      <c r="A137" t="n">
+        <v>1</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>MLB1893585692</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Cor : Azul | Voltagem : conexão 3 4 de polegada 25 mm</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>ADRIANA MEDEIROS ANDRADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138" ht="22.5" customHeight="1">
+      <c r="A138" t="n">
+        <v>1</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Marianne Elisabeth Feldmann</t>
+        </is>
+      </c>
+    </row>
+    <row r="139" ht="22.5" customHeight="1">
+      <c r="A139" t="n">
+        <v>1</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
           <t>MLB997776507</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Carcaça 5x2.1/2 (1/2) TR + chave + 10 * Pastilhas</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>Cor : Água</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>Alexandre Luiz Oliveira de Araujo</t>
+        </is>
+      </c>
+    </row>
+    <row r="140" ht="22.5" customHeight="1">
+      <c r="A140" t="n">
+        <v>1</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>MLB3391361861</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Raulicio Gomes Souza</t>
+        </is>
+      </c>
+    </row>
+    <row r="141" ht="22.5" customHeight="1">
+      <c r="A141" t="n">
+        <v>2</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>MLB1065447969</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Cor : Branco | Voltagem : 20</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Rian Cristofer Rodrigues Felippe</t>
+        </is>
+      </c>
+    </row>
+    <row r="142" ht="22.5" customHeight="1">
+      <c r="A142" t="n">
+        <v>1</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>MLB1088847954</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Cor : 5 micra</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Vandro Santi Saggim</t>
+        </is>
+      </c>
+    </row>
+    <row r="143" ht="22.5" customHeight="1">
+      <c r="A143" t="n">
+        <v>3</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>MLB996491791</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Cor : Amarelo</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Cléryson Wander Teixeira</t>
+        </is>
+      </c>
+    </row>
+    <row r="144" ht="22.5" customHeight="1">
+      <c r="A144" t="n">
+        <v>1</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>MLB1085011369</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Nilza Barbosa de Castro Silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="145" ht="22.5" customHeight="1">
+      <c r="A145" t="n">
+        <v>1</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>MLB996522874</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Cor : Branco | Voltagem : 20</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Claudio Jose Geraldo</t>
+        </is>
+      </c>
+    </row>
+    <row r="146" ht="22.5" customHeight="1">
+      <c r="A146" t="n">
+        <v>1</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>MLB2822025113</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>BRILHO FESTA - INDUSTRIA DE ARTIGOS PARA FESTAS EIRELICOMEMORE COMERCIO DE ARTIGOS PARA FESTAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="147" ht="22.5" customHeight="1">
+      <c r="A147" t="n">
+        <v>1</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>MLB3771186511</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Cor : Bege | Voltagem : Não se Aplica</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Maria Cristina Setragni Olinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="148" ht="22.5" customHeight="1">
+      <c r="A148" t="n">
+        <v>1</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>manoel marques</t>
+        </is>
+      </c>
+    </row>
+    <row r="149" ht="22.5" customHeight="1">
+      <c r="A149" t="n">
+        <v>1</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>manoel marques</t>
+        </is>
+      </c>
+    </row>
+    <row r="150" ht="22.5" customHeight="1">
+      <c r="A150" t="n">
+        <v>1</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>MLB1465515862</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Carme Lúcia Santiago</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" ht="22.5" customHeight="1">
+      <c r="A151" t="n">
+        <v>1</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>MLB4049432890</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Livia Abreu de souza</t>
+        </is>
+      </c>
+    </row>
+    <row r="152" ht="22.5" customHeight="1">
+      <c r="A152" t="n">
+        <v>1</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>MLB1893585692</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Cor : Azul | Voltagem : conexão 3 4 de polegada 25 mm</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>TRAJANO CONFECCOES LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="153" ht="22.5" customHeight="1">
+      <c r="A153" t="n">
+        <v>1</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>MLB1893585692</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Cor : Azul | Voltagem : conexão 1.1 2 polegada 50mm</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Leonardo Rock</t>
+        </is>
+      </c>
+    </row>
+    <row r="154" ht="22.5" customHeight="1">
+      <c r="A154" t="n">
+        <v>1</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>MLB1496052236</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Daniel Marques Cavalcante</t>
+        </is>
+      </c>
+    </row>
+    <row r="155" ht="22.5" customHeight="1">
+      <c r="A155" t="n">
+        <v>1</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>MLB1074418686</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>WELLINGTON SALES</t>
+        </is>
+      </c>
+    </row>
+    <row r="156" ht="22.5" customHeight="1">
+      <c r="A156" t="n">
+        <v>2</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>MLB2022683792</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>MAKRO CHUI SUPERMERCADO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="157" ht="22.5" customHeight="1">
+      <c r="A157" t="n">
+        <v>9</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>MLB1088847954</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Cor : 25MICRA</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Condominio  Ecos Natureza</t>
+        </is>
+      </c>
+    </row>
+    <row r="158" ht="22.5" customHeight="1">
+      <c r="A158" t="n">
+        <v>1</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>MLB1164452756</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Cor : Transparente</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Pablo Alexandre Monteiro Santos</t>
+        </is>
+      </c>
+    </row>
+    <row r="159" ht="22.5" customHeight="1">
+      <c r="A159" t="n">
+        <v>1</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>MLB3391361861</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Janio Silva de Souza</t>
+        </is>
+      </c>
+    </row>
+    <row r="160" ht="22.5" customHeight="1">
+      <c r="A160" t="n">
+        <v>1</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>MLB1527549288</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Cor : Plissado 05 micras | Voltagem : conexão 3.4 polegada</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Paulo Frade</t>
+        </is>
+      </c>
+    </row>
+    <row r="161" ht="22.5" customHeight="1">
+      <c r="A161" t="n">
+        <v>1</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Edson Aires Oliver</t>
+        </is>
+      </c>
+    </row>
+    <row r="162" ht="22.5" customHeight="1">
+      <c r="A162" t="n">
+        <v>1</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>MLB1164452756</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Cor : Transparente</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Mariana Camilli Sant Ana Assuncao</t>
+        </is>
+      </c>
+    </row>
+    <row r="163" ht="22.5" customHeight="1">
+      <c r="A163" t="n">
+        <v>1</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>MLB1040711608</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Thales Gonzaga Homem</t>
+        </is>
+      </c>
+    </row>
+    <row r="164" ht="22.5" customHeight="1">
+      <c r="A164" t="n">
+        <v>1</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>MLB1065314325</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Winicius Szymula</t>
+        </is>
+      </c>
+    </row>
+    <row r="165" ht="22.5" customHeight="1">
+      <c r="A165" t="n">
+        <v>1</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>MLB1088847954</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Cor : 25MICRA</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Paulo Altmayer Goncalves</t>
+        </is>
+      </c>
+    </row>
+    <row r="166" ht="22.5" customHeight="1">
+      <c r="A166" t="n">
+        <v>2</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>MLB1397753949</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Cor : Branco</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>CORCRIL COMERCIO DE REFRIGERACAO CRICIUMA LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="167" ht="22.5" customHeight="1">
+      <c r="A167" t="n">
+        <v>1</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>MLB1164452756</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Cor : Transparente</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>COML VASSELAI DE ALIM EIRELI EPP</t>
+        </is>
+      </c>
+    </row>
+    <row r="168" ht="22.5" customHeight="1">
+      <c r="A168" t="n">
+        <v>1</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>MLB1065447969</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Cor : Branco | Voltagem : 20</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Jôassis Assis</t>
+        </is>
+      </c>
+    </row>
+    <row r="169" ht="22.5" customHeight="1">
+      <c r="A169" t="n">
+        <v>1</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>MLB4629169970</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Cor : filtro para poço artesiano | Voltagem : vazão 2.000l h</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>João Alberto Rodrigues Aragão</t>
+        </is>
+      </c>
+    </row>
+    <row r="170" ht="22.5" customHeight="1">
+      <c r="A170" t="n">
+        <v>1</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>MLB1040711608</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Leonardo Lontro de Carvalho</t>
+        </is>
+      </c>
+    </row>
+    <row r="171" ht="22.5" customHeight="1">
+      <c r="A171" t="n">
+        <v>1</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>MLB1065447969</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Cor : Branco | Voltagem : 20</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Thiago Selton</t>
+        </is>
+      </c>
+    </row>
+    <row r="172" ht="22.5" customHeight="1">
+      <c r="A172" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>MLB3391361861</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Antonio de Oliveira Raupp</t>
+        </is>
+      </c>
+    </row>
+    <row r="173" ht="22.5" customHeight="1">
+      <c r="A173" t="n">
+        <v>1</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>MLB996491791</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Cor : Amarelo</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Jorgemar Leite da Silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="174" ht="22.5" customHeight="1">
+      <c r="A174" t="n">
+        <v>1</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>MLB2806263624</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>gustavo paulini costa</t>
+        </is>
+      </c>
+    </row>
+    <row r="175" ht="22.5" customHeight="1">
+      <c r="A175" t="n">
+        <v>1</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>MLB2806263624</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>indianara Belotti Costa</t>
+        </is>
+      </c>
+    </row>
+    <row r="176" ht="22.5" customHeight="1">
+      <c r="A176" t="n">
+        <v>1</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>MLB1496050689</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>CENTRO OESTE FARMACIA DE MANIPULACAO LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="177" ht="22.5" customHeight="1">
+      <c r="A177" t="n">
+        <v>1</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>MLB2797996028</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Cor : Branco</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>GILBERTO PIZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="178" ht="22.5" customHeight="1">
+      <c r="A178" t="n">
+        <v>1</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>MLB1397753949</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Cor : Branco</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Lauriston Martins</t>
+        </is>
+      </c>
+    </row>
+    <row r="179" ht="22.5" customHeight="1">
+      <c r="A179" t="n">
+        <v>1</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>MLB1527549288</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Cor : plissado 50 micra | Voltagem : conexão 3.4 polegada</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Regina Maria  Alves </t>
+        </is>
+      </c>
+    </row>
+    <row r="180" ht="22.5" customHeight="1">
+      <c r="A180" t="n">
+        <v>1</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Emilly Moraes</t>
+        </is>
+      </c>
+    </row>
+    <row r="181" ht="22.5" customHeight="1">
+      <c r="A181" t="n">
+        <v>1</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>MLB1701252576</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Cor : Transparente</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Ranieri Milli</t>
+        </is>
+      </c>
+    </row>
+    <row r="182" ht="22.5" customHeight="1">
+      <c r="A182" t="n">
+        <v>1</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>MLB1040711608</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Thales Gonzaga Homem</t>
+        </is>
+      </c>
+    </row>
+    <row r="183" ht="22.5" customHeight="1">
+      <c r="A183" t="n">
+        <v>1</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>MLB5284200628</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Cor : Branco | Voltagem : 127/220V</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Odair Bertaco</t>
+        </is>
+      </c>
+    </row>
+    <row r="184" ht="22.5" customHeight="1">
+      <c r="A184" t="n">
+        <v>1</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>MLB1095428728</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>CARVÃO ATIVADO : 6X10</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Romilton Oliveira de Souza</t>
+        </is>
+      </c>
+    </row>
+    <row r="185" ht="22.5" customHeight="1">
+      <c r="A185" t="n">
+        <v>1</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>MLB1527549288</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Cor : Plissado 25 micra | Voltagem : conexão 3.4 polegada</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Alan Berigo da Silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="186" ht="22.5" customHeight="1">
+      <c r="A186" t="n">
+        <v>1</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>MLB3391361861</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Marcelo Menegat</t>
+        </is>
+      </c>
+    </row>
+    <row r="187" ht="22.5" customHeight="1">
+      <c r="A187" t="n">
+        <v>1</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>ManoelinaAparecida de Brito Brito</t>
+        </is>
+      </c>
+    </row>
+    <row r="188" ht="22.5" customHeight="1">
+      <c r="A188" t="n">
+        <v>1</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>MLB3391361861</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Teixeira Araujo</t>
+        </is>
+      </c>
+    </row>
+    <row r="189" ht="22.5" customHeight="1">
+      <c r="A189" t="n">
+        <v>1</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>MLB2806237253</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wiliam Honorio de Castro </t>
+        </is>
+      </c>
+    </row>
+    <row r="190" ht="22.5" customHeight="1">
+      <c r="A190" t="n">
+        <v>1</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>MLB4629169970</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Cor : filtro para poço artesiano | Voltagem : vazão 2.000l h</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Jose Arlindo da Silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="191" ht="22.5" customHeight="1">
+      <c r="A191" t="n">
+        <v>1</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>MLB1088847954</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Cor : 25MICRA</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Hildeu Tiago Vilela</t>
+        </is>
+      </c>
+    </row>
+    <row r="192" ht="22.5" customHeight="1">
+      <c r="A192" t="n">
+        <v>1</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>MLB2806263624</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>EMPORIO DA CARNE ALIMENTOS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="193" ht="22.5" customHeight="1">
+      <c r="A193" t="n">
+        <v>1</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>MLB1010220552</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Fabiana Camilo</t>
+        </is>
+      </c>
+    </row>
+    <row r="194" ht="22.5" customHeight="1">
+      <c r="A194" t="n">
+        <v>1</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>MLB1747473161</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Cor : Azul</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Magno Facundo</t>
+        </is>
+      </c>
+    </row>
+    <row r="195" ht="22.5" customHeight="1">
+      <c r="A195" t="n">
+        <v>1</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>MLB4629169970</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Cor : filtro para poço artesiano | Voltagem : vazão 2.000l h</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Renato Rodrigues Nogueira Neto</t>
+        </is>
+      </c>
+    </row>
+    <row r="196" ht="22.5" customHeight="1">
+      <c r="A196" t="n">
+        <v>1</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>MLB4629169970</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Cor : filtro para poço artesiano | Voltagem : vazão 2.000l h</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Guillermo Gamba</t>
+        </is>
+      </c>
+    </row>
+    <row r="197" ht="22.5" customHeight="1">
+      <c r="A197" t="n">
+        <v>1</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>MLB2940388023</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Johnny de Castro E Silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="198" ht="22.5" customHeight="1">
+      <c r="A198" t="n">
+        <v>1</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>MLB1054317400</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>IGOR NISHIZAKI</t>
+        </is>
+      </c>
+    </row>
+    <row r="199" ht="22.5" customHeight="1">
+      <c r="A199" t="n">
+        <v>1</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>MLB1054317400</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>IGOR NISHIZAKI</t>
+        </is>
+      </c>
+    </row>
+    <row r="200" ht="22.5" customHeight="1">
+      <c r="A200" t="n">
+        <v>1</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>MLB1856944800</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Cor : Preto</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Nalva Regina Teodoro Pontes</t>
+        </is>
+      </c>
+    </row>
+    <row r="201" ht="22.5" customHeight="1">
+      <c r="B201" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Mauro de Melo Juca</t>
+        </is>
+      </c>
+    </row>
+    <row r="202" ht="22.5" customHeight="1">
+      <c r="A202" t="n">
+        <v>1</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>MLB1015389821</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Cor : Branco</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="203" ht="22.5" customHeight="1">
+      <c r="A203" t="n">
+        <v>1</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>MLB3559671067</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="204" ht="22.5" customHeight="1">
+      <c r="A204" t="n">
+        <v>1</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>MLB1065447969</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Cor : Branco | Voltagem : 20</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vânio Giordani </t>
+        </is>
+      </c>
+    </row>
+    <row r="205" ht="22.5" customHeight="1">
+      <c r="A205" t="n">
+        <v>1</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>MLB3592486542</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Ronaldo Jeronimo Gomes</t>
+        </is>
+      </c>
+    </row>
+    <row r="206" ht="22.5" customHeight="1">
+      <c r="A206" t="n">
+        <v>2</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>MLB1088847954</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Cor : 50 MICRA</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>André Luiz Cardoso Serra</t>
+        </is>
+      </c>
+    </row>
+    <row r="207" ht="22.5" customHeight="1">
+      <c r="A207" t="n">
+        <v>2</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>MLB1088847954</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Cor : 25MICRA</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>André Luiz Cardoso Serra</t>
+        </is>
+      </c>
+    </row>
+    <row r="208" ht="22.5" customHeight="1">
+      <c r="A208" t="n">
+        <v>1</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>MLB1671569277</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Cor : Cinza-escuro</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>CONDOMINIO EDIFICIO SINHA MOREIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="209" ht="22.5" customHeight="1">
+      <c r="A209" t="n">
+        <v>1</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>tatiane  seidel woitchunas</t>
+        </is>
+      </c>
+    </row>
+    <row r="210" ht="22.5" customHeight="1">
+      <c r="A210" t="n">
+        <v>1</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>tatiane  seidel woitchunas</t>
+        </is>
+      </c>
+    </row>
+    <row r="211" ht="22.5" customHeight="1">
+      <c r="A211" t="n">
+        <v>1</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>MLB2806263624</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Jonas Dias de Abreu</t>
+        </is>
+      </c>
+    </row>
+    <row r="212" ht="22.5" customHeight="1">
+      <c r="A212" t="n">
+        <v>1</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>MLB1701252576</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Cor : Transparente</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>R&amp;ampJPRODUTOS ALIMENTICIOS EIRELI</t>
+        </is>
+      </c>
+    </row>
+    <row r="213" ht="22.5" customHeight="1">
+      <c r="A213" t="n">
+        <v>1</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>MLB1088847954</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Cor : 5 micra</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Edmilson Rodrigues de Souza</t>
+        </is>
+      </c>
+    </row>
+    <row r="214" ht="22.5" customHeight="1">
+      <c r="A214" t="n">
+        <v>1</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>MLB1065447969</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Cor : Branco | Voltagem : 20</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Rogerio Paixão</t>
+        </is>
+      </c>
+    </row>
+    <row r="215" ht="22.5" customHeight="1">
+      <c r="A215" t="n">
+        <v>1</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>MLB1009424032</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>CONEXÃO : 1/2'' | Voltagem : 0</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>NATHALIA OLIVEIRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="216" ht="22.5" customHeight="1">
+      <c r="A216" t="n">
+        <v>1</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>MLB3981196037</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Cor : 25MICRA</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Ronie Robson de Sousa</t>
+        </is>
+      </c>
+    </row>
+    <row r="217" ht="22.5" customHeight="1">
+      <c r="A217" t="n">
+        <v>1</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>MLB4530013760</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Cor : Transparente</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Janio Macedo Rodrigues</t>
+        </is>
+      </c>
+    </row>
+    <row r="218" ht="22.5" customHeight="1">
+      <c r="A218" t="n">
+        <v>1</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>MLB1088847954</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Cor : 25MICRA</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Carolina Amaral de Assis Lima</t>
+        </is>
+      </c>
+    </row>
+    <row r="219" ht="22.5" customHeight="1">
+      <c r="A219" t="n">
+        <v>1</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>MLB996446769</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Rodrigo Dos Anjos Cordeiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="220" ht="22.5" customHeight="1">
+      <c r="A220" t="n">
+        <v>1</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>maria auxiliadorara gomes de castro</t>
+        </is>
+      </c>
+    </row>
+    <row r="221" ht="22.5" customHeight="1">
+      <c r="A221" t="n">
+        <v>1</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>MLB1397753949</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Cor : Branco</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Julcemar Caetano</t>
+        </is>
+      </c>
+    </row>
+    <row r="222" ht="22.5" customHeight="1">
+      <c r="A222" t="n">
+        <v>1</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>MLB1040711608</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>jhonathan Fonseca</t>
+        </is>
+      </c>
+    </row>
+    <row r="223" ht="22.5" customHeight="1">
+      <c r="A223" t="n">
+        <v>1</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>MLB996522874</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Cor : Branco | Voltagem : 20</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>VAMOS PEDALAR COMERCIO E SERVCOS DE BICICLETAS LIMITADA</t>
+        </is>
+      </c>
+    </row>
+    <row r="224" ht="22.5" customHeight="1">
+      <c r="A224" t="n">
+        <v>1</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>CONDOMINIO VOG JOAO DE GOES</t>
+        </is>
+      </c>
+    </row>
+    <row r="225" ht="22.5" customHeight="1">
+      <c r="A225" t="n">
+        <v>1</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>MLB1100053847</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Cor : Branco | Voltagem : 20</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>GÉSSICA NAZARETH MACHADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="226" ht="22.5" customHeight="1">
+      <c r="A226" t="n">
+        <v>1</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>MLB1527549288</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Cor : Plissado 25 micra | Voltagem : conexão 3.4 polegada</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Isaías Medeiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="227" ht="22.5" customHeight="1">
+      <c r="A227" t="n">
+        <v>1</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>MLB1010220552</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>jean alexandre leite</t>
+        </is>
+      </c>
+    </row>
+    <row r="228" ht="22.5" customHeight="1">
+      <c r="A228" t="n">
+        <v>1</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>MLB1701252576</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Cor : Transparente</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>SAJAMA MALHAS LTDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="229" ht="22.5" customHeight="1">
+      <c r="A229" t="n">
+        <v>1</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>MLB1164452756</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Cor : Transparente</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Osvaldo Bispo Franco Junior</t>
+        </is>
+      </c>
+    </row>
+    <row r="230" ht="22.5" customHeight="1">
+      <c r="A230" t="n">
+        <v>1</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>MLB1469599076</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Cor : Branco | Voltagem : N/A</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>José Ney Alves Ricardo Neto Ricardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="231" ht="22.5" customHeight="1">
+      <c r="A231" t="n">
+        <v>1</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>MLB4870378786</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Cidnei Pereira Branco</t>
+        </is>
+      </c>
+    </row>
+    <row r="232" ht="22.5" customHeight="1">
+      <c r="A232" t="n">
+        <v>1</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>MLB4530013760</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Cor : Transparente</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Francisco Machado Manhaes de Castro</t>
+        </is>
+      </c>
+    </row>
+    <row r="233" ht="22.5" customHeight="1">
+      <c r="A233" t="n">
+        <v>1</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>MLB1212886880</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Cor : Branco</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Rauye Mateus Rogiski</t>
+        </is>
+      </c>
+    </row>
+    <row r="234" ht="22.5" customHeight="1">
+      <c r="A234" t="n">
+        <v>1</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>MLB1975196364</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Cor : Bege</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Joao Vitor Pala Lopes</t>
+        </is>
+      </c>
+    </row>
+    <row r="235" ht="22.5" customHeight="1">
+      <c r="A235" t="n">
+        <v>1</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>MLB1065447969</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Cor : Branco | Voltagem : 20</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Walter Jose Piauhy Falcao</t>
         </is>
       </c>
     </row>
